--- a/config_11.3/task_zajindan_server.xlsx
+++ b/config_11.3/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -10968,15 +10968,8 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>累计购买3\5\7次国庆福袋后可获得奖励</t>
-  </si>
-  <si>
     <t>normal</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2,2,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
@@ -11251,6 +11244,14 @@
   <si>
     <t>p_034_xyxfl</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计购买2\3\5次国庆福袋后可获得奖励</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12235,11 +12236,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D466" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F494" sqref="F494"/>
+      <selection pane="bottomRight" activeCell="G482" sqref="G482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30639,7 +30640,7 @@
         <v>1726</v>
       </c>
       <c r="E475" s="48" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F475" s="48" t="s">
         <v>1716</v>
@@ -30680,7 +30681,7 @@
         <v>1714</v>
       </c>
       <c r="F476" s="48" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="G476" s="7">
         <v>21423</v>
@@ -30902,10 +30903,10 @@
         <v>1816</v>
       </c>
       <c r="D482" s="129" t="s">
-        <v>1818</v>
+        <v>1869</v>
       </c>
       <c r="E482" s="130" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="F482" s="130" t="s">
         <v>13</v>
@@ -30937,13 +30938,13 @@
         <v>1</v>
       </c>
       <c r="C483" s="138" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D483" s="138" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="E483" s="138" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="F483" s="137" t="s">
         <v>13</v>
@@ -30975,13 +30976,13 @@
         <v>1</v>
       </c>
       <c r="C484" s="138" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D484" s="138" t="s">
         <v>1829</v>
       </c>
-      <c r="D484" s="138" t="s">
-        <v>1831</v>
-      </c>
       <c r="E484" s="138" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="F484" s="137" t="s">
         <v>13</v>
@@ -31013,13 +31014,13 @@
         <v>1</v>
       </c>
       <c r="C485" s="138" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D485" s="138" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E485" s="138" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="F485" s="137" t="s">
         <v>13</v>
@@ -31051,13 +31052,13 @@
         <v>1</v>
       </c>
       <c r="C486" s="138" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D486" s="138" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="E486" s="138" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="F486" s="137" t="s">
         <v>13</v>
@@ -31089,13 +31090,13 @@
         <v>1</v>
       </c>
       <c r="C487" s="138" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D487" s="138" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="E487" s="138" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="F487" s="137" t="s">
         <v>13</v>
@@ -31127,13 +31128,13 @@
         <v>1</v>
       </c>
       <c r="C488" s="138" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D488" s="138" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="E488" s="138" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="F488" s="137" t="s">
         <v>13</v>
@@ -31165,13 +31166,13 @@
         <v>1</v>
       </c>
       <c r="C489" s="138" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D489" s="138" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E489" s="138" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="F489" s="137" t="s">
         <v>13</v>
@@ -31211,11 +31212,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K489"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C461" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D478" sqref="D478"/>
+      <selection pane="bottomRight" activeCell="F482" sqref="F482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43387,11 +43388,11 @@
       </c>
       <c r="E482" s="131"/>
       <c r="F482" s="135" t="s">
-        <v>1820</v>
+        <v>1870</v>
       </c>
       <c r="G482" s="132"/>
       <c r="H482" s="136" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="I482" s="134" t="s">
         <v>1793</v>
@@ -43410,14 +43411,14 @@
       </c>
       <c r="E483" s="139"/>
       <c r="F483" s="145" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="G483" s="140"/>
       <c r="H483" s="144" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="I483" s="143" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="484" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
@@ -43433,14 +43434,14 @@
       </c>
       <c r="E484" s="139"/>
       <c r="F484" s="145" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="G484" s="140"/>
       <c r="H484" s="141" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I484" s="143" t="s">
         <v>1839</v>
-      </c>
-      <c r="I484" s="143" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="485" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
@@ -43456,14 +43457,14 @@
       </c>
       <c r="E485" s="139"/>
       <c r="F485" s="145" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="G485" s="140"/>
       <c r="H485" s="144" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I485" s="143" t="s">
         <v>1839</v>
-      </c>
-      <c r="I485" s="143" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="486" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
@@ -43479,14 +43480,14 @@
       </c>
       <c r="E486" s="139"/>
       <c r="F486" s="145" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="G486" s="140"/>
       <c r="H486" s="141" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I486" s="143" t="s">
         <v>1839</v>
-      </c>
-      <c r="I486" s="143" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="487" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
@@ -43502,14 +43503,14 @@
       </c>
       <c r="E487" s="139"/>
       <c r="F487" s="145" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="G487" s="140"/>
       <c r="H487" s="144" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I487" s="143" t="s">
         <v>1839</v>
-      </c>
-      <c r="I487" s="143" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="488" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
@@ -43525,14 +43526,14 @@
       </c>
       <c r="E488" s="139"/>
       <c r="F488" s="145" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="G488" s="140"/>
       <c r="H488" s="141" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I488" s="143" t="s">
         <v>1839</v>
-      </c>
-      <c r="I488" s="143" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="489" spans="1:9" s="142" customFormat="1" x14ac:dyDescent="0.2">
@@ -43548,14 +43549,14 @@
       </c>
       <c r="E489" s="139"/>
       <c r="F489" s="145" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="G489" s="140"/>
       <c r="H489" s="144" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I489" s="143" t="s">
         <v>1839</v>
-      </c>
-      <c r="I489" s="143" t="s">
-        <v>1841</v>
       </c>
     </row>
   </sheetData>
@@ -53462,7 +53463,7 @@
         <v>473</v>
       </c>
       <c r="C681" s="134" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="D681" s="131">
         <v>334</v>
@@ -53476,7 +53477,7 @@
         <v>474</v>
       </c>
       <c r="C682" s="143" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D682" s="139">
         <v>335</v>
@@ -53490,7 +53491,7 @@
         <v>475</v>
       </c>
       <c r="C683" s="139" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D683" s="139">
         <v>336</v>
@@ -53504,7 +53505,7 @@
         <v>476</v>
       </c>
       <c r="C684" s="143" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="D684" s="139">
         <v>337</v>
@@ -53518,7 +53519,7 @@
         <v>477</v>
       </c>
       <c r="C685" s="143" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D685" s="139">
         <v>338</v>
@@ -53532,7 +53533,7 @@
         <v>478</v>
       </c>
       <c r="C686" s="143" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D686" s="139">
         <v>339</v>
@@ -53546,7 +53547,7 @@
         <v>479</v>
       </c>
       <c r="C687" s="139" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D687" s="139">
         <v>340</v>
@@ -53560,7 +53561,7 @@
         <v>480</v>
       </c>
       <c r="C688" s="143" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D688" s="139">
         <v>341</v>
@@ -60305,7 +60306,7 @@
         <v>1329</v>
       </c>
       <c r="D359" s="150" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="E359" s="93">
         <v>2</v>
@@ -61951,7 +61952,7 @@
         <v>681</v>
       </c>
       <c r="D455" s="148" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="E455" s="147">
         <v>2</v>
@@ -61966,10 +61967,10 @@
         <v>335</v>
       </c>
       <c r="C456" s="143" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D456" s="144" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E456" s="139">
         <v>3</v>
@@ -61984,10 +61985,10 @@
         <v>336</v>
       </c>
       <c r="C457" s="143" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D457" s="144" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="E457" s="139">
         <v>2</v>
@@ -62002,10 +62003,10 @@
         <v>337</v>
       </c>
       <c r="C458" s="143" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D458" s="144" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="E458" s="139">
         <v>3</v>
@@ -62020,10 +62021,10 @@
         <v>338</v>
       </c>
       <c r="C459" s="143" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="D459" s="144" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="E459" s="139">
         <v>2</v>
@@ -62038,10 +62039,10 @@
         <v>338</v>
       </c>
       <c r="C460" s="143" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D460" s="144" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="E460" s="139">
         <v>3</v>
@@ -62056,10 +62057,10 @@
         <v>339</v>
       </c>
       <c r="C461" s="143" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D461" s="144" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="E461" s="139">
         <v>3</v>
@@ -62077,7 +62078,7 @@
         <v>718</v>
       </c>
       <c r="D462" s="144" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="E462" s="139">
         <v>3</v>
@@ -62095,7 +62096,7 @@
         <v>718</v>
       </c>
       <c r="D463" s="144" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E463" s="139">
         <v>3</v>
@@ -62110,10 +62111,10 @@
         <v>341</v>
       </c>
       <c r="C464" s="143" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D464" s="144" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="E464" s="139">
         <v>2</v>
@@ -84664,7 +84665,7 @@
         <v>731</v>
       </c>
       <c r="D1106" s="14" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E1106" s="64" t="s">
         <v>1800</v>
@@ -84736,7 +84737,7 @@
         <v>773</v>
       </c>
       <c r="E1110" s="136" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F1110" s="131">
         <v>1</v>
@@ -84757,7 +84758,7 @@
         <v>773</v>
       </c>
       <c r="E1111" s="136" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F1111" s="131">
         <v>1</v>
@@ -84778,7 +84779,7 @@
         <v>773</v>
       </c>
       <c r="E1112" s="136" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="F1112" s="131">
         <v>1</v>
@@ -84928,7 +84929,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>849</v>

--- a/config_11.3/task_zajindan_server.xlsx
+++ b/config_11.3/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6256" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6256" uniqueCount="1871">
   <si>
     <t>id|任务id</t>
   </si>
@@ -11244,6 +11244,13 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_034_xyxfl</t>
+  </si>
+  <si>
+    <t>p_034_xyxfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12228,11 +12235,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T490"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E457" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G478" sqref="G478"/>
+      <selection pane="bottomRight" activeCell="F494" sqref="F494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30935,8 +30942,8 @@
       <c r="D483" s="138" t="s">
         <v>1830</v>
       </c>
-      <c r="E483" s="137" t="s">
-        <v>12</v>
+      <c r="E483" s="138" t="s">
+        <v>1870</v>
       </c>
       <c r="F483" s="137" t="s">
         <v>13</v>
@@ -30951,7 +30958,7 @@
         <v>1</v>
       </c>
       <c r="J483" s="137">
-        <v>1604359800</v>
+        <v>1604332800</v>
       </c>
       <c r="K483" s="137">
         <v>1604937599</v>
@@ -30973,8 +30980,8 @@
       <c r="D484" s="138" t="s">
         <v>1831</v>
       </c>
-      <c r="E484" s="137" t="s">
-        <v>12</v>
+      <c r="E484" s="138" t="s">
+        <v>1870</v>
       </c>
       <c r="F484" s="137" t="s">
         <v>13</v>
@@ -30989,7 +30996,7 @@
         <v>1</v>
       </c>
       <c r="J484" s="137">
-        <v>1604359800</v>
+        <v>1604332800</v>
       </c>
       <c r="K484" s="137">
         <v>1604937599</v>
@@ -31011,8 +31018,8 @@
       <c r="D485" s="138" t="s">
         <v>1832</v>
       </c>
-      <c r="E485" s="137" t="s">
-        <v>12</v>
+      <c r="E485" s="138" t="s">
+        <v>1870</v>
       </c>
       <c r="F485" s="137" t="s">
         <v>13</v>
@@ -31027,7 +31034,7 @@
         <v>1</v>
       </c>
       <c r="J485" s="137">
-        <v>1604359800</v>
+        <v>1604332800</v>
       </c>
       <c r="K485" s="137">
         <v>1604937599</v>
@@ -31049,8 +31056,8 @@
       <c r="D486" s="138" t="s">
         <v>1833</v>
       </c>
-      <c r="E486" s="137" t="s">
-        <v>12</v>
+      <c r="E486" s="138" t="s">
+        <v>1869</v>
       </c>
       <c r="F486" s="137" t="s">
         <v>13</v>
@@ -31065,7 +31072,7 @@
         <v>1</v>
       </c>
       <c r="J486" s="137">
-        <v>1604359800</v>
+        <v>1604332800</v>
       </c>
       <c r="K486" s="137">
         <v>1604937599</v>
@@ -31087,8 +31094,8 @@
       <c r="D487" s="138" t="s">
         <v>1834</v>
       </c>
-      <c r="E487" s="137" t="s">
-        <v>12</v>
+      <c r="E487" s="138" t="s">
+        <v>1869</v>
       </c>
       <c r="F487" s="137" t="s">
         <v>13</v>
@@ -31103,7 +31110,7 @@
         <v>1</v>
       </c>
       <c r="J487" s="137">
-        <v>1604359800</v>
+        <v>1604332800</v>
       </c>
       <c r="K487" s="137">
         <v>1604937599</v>
@@ -31125,8 +31132,8 @@
       <c r="D488" s="138" t="s">
         <v>1835</v>
       </c>
-      <c r="E488" s="137" t="s">
-        <v>12</v>
+      <c r="E488" s="138" t="s">
+        <v>1869</v>
       </c>
       <c r="F488" s="137" t="s">
         <v>13</v>
@@ -31141,7 +31148,7 @@
         <v>1</v>
       </c>
       <c r="J488" s="137">
-        <v>1604359800</v>
+        <v>1604332800</v>
       </c>
       <c r="K488" s="137">
         <v>1604937599</v>
@@ -31163,8 +31170,8 @@
       <c r="D489" s="138" t="s">
         <v>1836</v>
       </c>
-      <c r="E489" s="137" t="s">
-        <v>12</v>
+      <c r="E489" s="138" t="s">
+        <v>1869</v>
       </c>
       <c r="F489" s="137" t="s">
         <v>13</v>
@@ -31179,7 +31186,7 @@
         <v>1</v>
       </c>
       <c r="J489" s="137">
-        <v>1604359800</v>
+        <v>1604332800</v>
       </c>
       <c r="K489" s="137">
         <v>1604937599</v>
@@ -62125,11 +62132,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1086" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1113" sqref="B1113"/>
+      <selection pane="bottomRight" activeCell="A1113" sqref="A1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
